--- a/covidfallecidosacumulados.xlsx
+++ b/covidfallecidosacumulados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/Proyecto Python/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/enciclopedia-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C93A2-DE49-8949-9EA8-262038ED1F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8414704-794F-544E-9B4A-3F986D44FDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="11100" windowHeight="14460" xr2:uid="{3CD3D01F-B9D2-6B4E-9E70-D56BCD88F586}"/>
+    <workbookView xWindow="7520" yWindow="460" windowWidth="10400" windowHeight="14460" xr2:uid="{3CD3D01F-B9D2-6B4E-9E70-D56BCD88F586}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -457,11 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693332B-CCA4-904C-BE3A-58E72495E443}">
-  <dimension ref="A1:CH96"/>
+  <dimension ref="A1:CL96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH21" sqref="CH21"/>
+      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL24" sqref="CL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,8 +728,20 @@
       <c r="CH1" s="1">
         <v>43982</v>
       </c>
-    </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI1" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -988,8 +1000,20 @@
       <c r="CH2" s="3">
         <v>1404</v>
       </c>
-    </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI2" s="3">
+        <v>1404</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>1404</v>
+      </c>
+      <c r="CK2" s="3">
+        <v>1404</v>
+      </c>
+      <c r="CL2" s="3">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1248,8 +1272,20 @@
       <c r="CH3" s="3">
         <v>826</v>
       </c>
-    </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI3" s="3">
+        <v>826</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>826</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>826</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1508,8 +1544,20 @@
       <c r="CH4" s="3">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI4" s="3">
+        <v>202</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>202</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>202</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1768,8 +1816,20 @@
       <c r="CH5" s="3">
         <v>1924</v>
       </c>
-    </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI5" s="3">
+        <v>1924</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>1925</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>1928</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2028,8 +2088,20 @@
       <c r="CH6" s="3">
         <v>2945</v>
       </c>
-    </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI6" s="3">
+        <v>2945</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>2945</v>
+      </c>
+      <c r="CK6" s="3">
+        <v>2945</v>
+      </c>
+      <c r="CL6" s="3">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2288,8 +2360,20 @@
       <c r="CH7" s="3">
         <v>5587</v>
       </c>
-    </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI7" s="3">
+        <v>5587</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>5587</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>5587</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2548,8 +2632,20 @@
       <c r="CH8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI8" s="3">
+        <v>4</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>4</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>4</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2808,8 +2904,20 @@
       <c r="CH9" s="3">
         <v>8691</v>
       </c>
-    </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI9" s="3">
+        <v>8691</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>8691</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>8691</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3068,8 +3176,20 @@
       <c r="CH10" s="3">
         <v>1332</v>
       </c>
-    </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI10" s="3">
+        <v>1332</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>1332</v>
+      </c>
+      <c r="CK10" s="3">
+        <v>1332</v>
+      </c>
+      <c r="CL10" s="3">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3328,8 +3448,20 @@
       <c r="CH11" s="3">
         <v>508</v>
       </c>
-    </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI11" s="3">
+        <v>508</v>
+      </c>
+      <c r="CJ11" s="3">
+        <v>508</v>
+      </c>
+      <c r="CK11" s="3">
+        <v>508</v>
+      </c>
+      <c r="CL11" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3588,8 +3720,20 @@
       <c r="CH12" s="3">
         <v>609</v>
       </c>
-    </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI12" s="3">
+        <v>609</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>609</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>609</v>
+      </c>
+      <c r="CL12" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3848,8 +3992,20 @@
       <c r="CH13" s="3">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI13" s="3">
+        <v>209</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>209</v>
+      </c>
+      <c r="CK13" s="3">
+        <v>209</v>
+      </c>
+      <c r="CL13" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4108,8 +4264,20 @@
       <c r="CH14" s="3">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI14" s="3">
+        <v>151</v>
+      </c>
+      <c r="CJ14" s="3">
+        <v>151</v>
+      </c>
+      <c r="CK14" s="3">
+        <v>151</v>
+      </c>
+      <c r="CL14" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -4368,8 +4536,20 @@
       <c r="CH15" s="3">
         <v>361</v>
       </c>
-    </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI15" s="3">
+        <v>361</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>361</v>
+      </c>
+      <c r="CK15" s="3">
+        <v>362</v>
+      </c>
+      <c r="CL15" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4628,8 +4808,20 @@
       <c r="CH16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI16" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ16" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK16" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4888,8 +5080,20 @@
       <c r="CH17" s="3">
         <v>490</v>
       </c>
-    </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI17" s="3">
+        <v>490</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>490</v>
+      </c>
+      <c r="CK17" s="3">
+        <v>490</v>
+      </c>
+      <c r="CL17" s="3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -5148,8 +5352,20 @@
       <c r="CH18" s="3">
         <v>1424</v>
       </c>
-    </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI18" s="3">
+        <v>1424</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>1424</v>
+      </c>
+      <c r="CK18" s="3">
+        <v>1424</v>
+      </c>
+      <c r="CL18" s="3">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -5408,8 +5624,20 @@
       <c r="CH19" s="3">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI19" s="3">
+        <v>310</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>310</v>
+      </c>
+      <c r="CK19" s="3">
+        <v>311</v>
+      </c>
+      <c r="CL19" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5668,47 +5896,59 @@
       <c r="CH20" s="3">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI20" s="3">
+        <v>148</v>
+      </c>
+      <c r="CJ20" s="3">
+        <v>148</v>
+      </c>
+      <c r="CK20" s="3">
+        <v>148</v>
+      </c>
+      <c r="CL20" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
